--- a/biology/Botanique/Parc_paysager_de_Gostynin-Włocławek/Parc_paysager_de_Gostynin-Włocławek.xlsx
+++ b/biology/Botanique/Parc_paysager_de_Gostynin-Włocławek/Parc_paysager_de_Gostynin-Włocławek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_paysager_de_Gostynin-W%C5%82oc%C5%82awek</t>
+          <t>Parc_paysager_de_Gostynin-Włocławek</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc de Gostynin-Włocławek (en polonais : Gostynińsko-Włocławski Park Krajobrazowy) est situé entre Płock, Gostynin, Łącko, Włocławek et Kowal en Pologne. D'une superficie de 389,50 km2, il couvre largement la vallée de la Vistule. La zone du parc coïncide presque entièrement avec le Complexe forestier de Promotion de Forêts d'État (Lasy Państwowe) « Forêts de Gostynin et de Włocławek ». Le parc comporte une zone protégée d'une superficie de 141,95 km2[1],[2]. 
+Le parc de Gostynin-Włocławek (en polonais : Gostynińsko-Włocławski Park Krajobrazowy) est situé entre Płock, Gostynin, Łącko, Włocławek et Kowal en Pologne. D'une superficie de 389,50 km2, il couvre largement la vallée de la Vistule. La zone du parc coïncide presque entièrement avec le Complexe forestier de Promotion de Forêts d'État (Lasy Państwowe) « Forêts de Gostynin et de Włocławek ». Le parc comporte une zone protégée d'une superficie de 141,95 km2,. 
 Il possède de nombreux éléments protégés, comme le chêne de Jan, dont l'âge est estimé à 300 ans. De nombreux lacs postglaciaires (par exemple Lucieńskie, Radaszyńskie, Łąkie) composent une partie de la superficie du parc.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_paysager_de_Gostynin-W%C5%82oc%C5%82awek</t>
+          <t>Parc_paysager_de_Gostynin-Włocławek</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Écosystème</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le paysage du parc est dominé par la végétation forestière. En surface, il est principalement composé de forêts de pins et de forêts mixtes. Les forêts riveraines et les forêts d'aulnes sont concentrées dans les vallées fluviales et autour des lacs. Dans les environs de Łącko se trouve le complexe de forêt de feuillus et de chênes.
 Dans les années 1980, plusieurs couples de castors ont été introduits dans le parc par des chasseurs (guidés par Czesław Sielicki et Grzegorz Wiśniewski) et s'y sont depuis parfaitement adaptés.  
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_paysager_de_Gostynin-W%C5%82oc%C5%82awek</t>
+          <t>Parc_paysager_de_Gostynin-Włocławek</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Réserves naturelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Réserves situées dans le parc paysager de Gostynin-Włocławek:
 situées dans la voïvodie de Couïavie-Poméranie:  
